--- a/linkslist.xlsx
+++ b/linkslist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Pages</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Groups - Kaldin Online Exam to Evaluate Knowledge.html</t>
   </si>
   <si>
-    <t>Users</t>
-  </si>
-  <si>
     <t>Email Templates - Kaldin The Knowledge Evaluator.html</t>
   </si>
   <si>
@@ -88,6 +85,102 @@
   </si>
   <si>
     <t>My Profile - Kaldin Online Exam to Evaluate Knowledge.html</t>
+  </si>
+  <si>
+    <t>Import Questions - Kaldin Online Exam to Evaluate Knowledge.html</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>complexity</t>
+  </si>
+  <si>
+    <t>Question Complexity - Kaldin _ Open Source Web-based online examination software.html</t>
+  </si>
+  <si>
+    <t>24/12/2015</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Question Category - Kaldin _ Open Source Web-based online examination software.html</t>
+  </si>
+  <si>
+    <t>sub-category</t>
+  </si>
+  <si>
+    <t>Question Sub Category - Kaldin _ Open Source Web-based online examination software.html</t>
+  </si>
+  <si>
+    <t>scheduled</t>
+  </si>
+  <si>
+    <t>Scheduled Exams - Kaldin Online Exam to Evaluate Knowledge.html</t>
+  </si>
+  <si>
+    <t>useradd</t>
+  </si>
+  <si>
+    <t>Add New Users - Kaldin Online Exam to Evaluate Knowledge.html</t>
+  </si>
+  <si>
+    <t>userview</t>
+  </si>
+  <si>
+    <t>usergroup</t>
+  </si>
+  <si>
+    <t>View Profile - Kaldin Online Exam to Evaluate Knowledge.html</t>
+  </si>
+  <si>
+    <t>importusers</t>
+  </si>
+  <si>
+    <t>Import Users - Kaldin Online Exam to Evaluate Knowledge.html</t>
+  </si>
+  <si>
+    <t>certificate-add</t>
+  </si>
+  <si>
+    <t>Certificate Template - Kaldin The Knowledge Evaluator.html</t>
+  </si>
+  <si>
+    <t>setting-mesg</t>
+  </si>
+  <si>
+    <t>Plan Contact Response Messages.html</t>
+  </si>
+  <si>
+    <t>setting-trans</t>
+  </si>
+  <si>
+    <t>Transaction History.html</t>
+  </si>
+  <si>
+    <t>Setting - Kaldin Online Exam to Evaluate Knowledge.html</t>
+  </si>
+  <si>
+    <t>setting show-result</t>
+  </si>
+  <si>
+    <t>setting-user</t>
+  </si>
+  <si>
+    <t>User Profile - Kaldin - Online Exam To Evaluate Knowledge.html</t>
+  </si>
+  <si>
+    <t>User wise Exam Result - Kaldin Online Exam To Evaluate Knowledge.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> result-User -Wise results</t>
+  </si>
+  <si>
+    <t>Change PassWord - Kaldin Online Exam to Evaluate Knowledge.html</t>
+  </si>
+  <si>
+    <t>profile-changepassword</t>
   </si>
 </sst>
 </file>
@@ -427,19 +520,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -455,7 +548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -463,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -471,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -479,7 +572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -487,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -495,44 +588,173 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/linkslist.xlsx
+++ b/linkslist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>Pages</t>
   </si>
@@ -181,13 +181,31 @@
   </si>
   <si>
     <t>profile-changepassword</t>
+  </si>
+  <si>
+    <t>Question Category - Open Source Web-based online examination software-1.html</t>
+  </si>
+  <si>
+    <t>Question Category</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>Question Complexity -com-Open Source Web-based online examination software.html</t>
+  </si>
+  <si>
+    <t>Question Sub Category - sub-Open Source Web-based online examination software.html</t>
+  </si>
+  <si>
+    <t>sub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +219,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -220,14 +245,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -757,9 +788,36 @@
         <v>53</v>
       </c>
     </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A34" r:id="rId1" display="http://www.kaldin.com/a/Subject.do"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
